--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2397750.071964518</v>
+        <v>2393118.204935051</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="S2" t="n">
-        <v>6.478598521151547</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,55 +746,55 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>13.35464426286299</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,61 +816,61 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.93225064571201</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13.35464426286299</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>13.58434214447045</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.16194852731947</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="S5" t="n">
-        <v>6.478598521151547</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.16194852731947</v>
+        <v>13.35464426286299</v>
       </c>
     </row>
     <row r="6">
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="S6" t="n">
+      <c r="V6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="X6" t="n">
         <v>13.35464426286299</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15.16194852731947</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>13.58434214447045</v>
       </c>
       <c r="I7" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>13.35464426286299</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>84.74074214747405</v>
+        <v>104.0154267588398</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>27.50184046889843</v>
       </c>
       <c r="E8" t="n">
-        <v>104.0154267588391</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>104.0154267588391</v>
+        <v>13.6114292076474</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>104.0154267588391</v>
+        <v>104.0154267588398</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>43.62747247092879</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>104.0154267588398</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>104.0154267588398</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.97281151398492</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>104.0154267588391</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>47.64397637520057</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>104.0154267588391</v>
+        <v>91.61678788918609</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>104.0154267588398</v>
       </c>
       <c r="Y9" t="n">
-        <v>104.0154267588391</v>
+        <v>104.0154267588398</v>
       </c>
     </row>
     <row r="10">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.0154267588391</v>
+        <v>104.0154267588398</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>104.0154267588391</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>91.61678788918547</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.63438908707402</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>68.98239880211209</v>
       </c>
       <c r="T10" t="n">
-        <v>104.0154267588391</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>104.0154267588398</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>104.0154267588398</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>207.4006376819559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>139.2440807643135</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>120.4424239494343</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>37.17792077063414</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>241.8115698409626</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
-        <v>136.5667167289879</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>101.1785556175223</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>114.2821160880071</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>18.7084378797731</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.77337404802782</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>58.24570521548608</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>98.45284414233032</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.88641949135547</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>230.4433519268047</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>251.2117044543522</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.47355615393395</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="C2" t="n">
-        <v>23.47355615393395</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="D2" t="n">
-        <v>23.47355615393395</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="E2" t="n">
-        <v>23.47355615393395</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="F2" t="n">
         <v>16.52805540473048</v>
@@ -4336,46 +4336,46 @@
         <v>1.212955882185558</v>
       </c>
       <c r="L2" t="n">
-        <v>15.61680698313905</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="M2" t="n">
-        <v>30.62713602518533</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="N2" t="n">
-        <v>30.62713602518533</v>
+        <v>25.46633770769475</v>
       </c>
       <c r="O2" t="n">
-        <v>45.6374650672316</v>
+        <v>40.47666674974103</v>
       </c>
       <c r="P2" t="n">
-        <v>60.64779410927788</v>
+        <v>55.48699579178731</v>
       </c>
       <c r="Q2" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="R2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S2" t="n">
-        <v>54.10375519902379</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="T2" t="n">
-        <v>54.10375519902379</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="U2" t="n">
-        <v>38.78865567647888</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="V2" t="n">
-        <v>38.78865567647888</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="W2" t="n">
-        <v>38.78865567647888</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="X2" t="n">
-        <v>38.78865567647888</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.78865567647888</v>
+        <v>30.01759506418804</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.01759506418804</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="C3" t="n">
-        <v>30.01759506418804</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="D3" t="n">
-        <v>30.01759506418804</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F3" t="n">
         <v>1.212955882185558</v>
@@ -4409,19 +4409,19 @@
         <v>1.212955882185558</v>
       </c>
       <c r="J3" t="n">
-        <v>7.519576199182469</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K3" t="n">
-        <v>22.52990524122875</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="L3" t="n">
-        <v>37.54023428327503</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="M3" t="n">
-        <v>52.55056332532131</v>
+        <v>46.24394300832439</v>
       </c>
       <c r="N3" t="n">
-        <v>52.55056332532131</v>
+        <v>46.24394300832439</v>
       </c>
       <c r="O3" t="n">
         <v>60.64779410927788</v>
@@ -4436,25 +4436,25 @@
         <v>60.64779410927788</v>
       </c>
       <c r="S3" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T3" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U3" t="n">
-        <v>60.64779410927788</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="V3" t="n">
-        <v>60.64779410927788</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="W3" t="n">
-        <v>60.64779410927788</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="X3" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.01759506418804</v>
+        <v>14.70249554164312</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.01759506418804</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="C4" t="n">
-        <v>30.01759506418804</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="D4" t="n">
-        <v>30.01759506418804</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="E4" t="n">
-        <v>30.01759506418804</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="F4" t="n">
-        <v>30.01759506418804</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="G4" t="n">
-        <v>16.52805540473048</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="H4" t="n">
-        <v>16.52805540473048</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="I4" t="n">
-        <v>1.212955882185558</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="J4" t="n">
-        <v>1.212955882185558</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="K4" t="n">
         <v>1.212955882185558</v>
       </c>
       <c r="L4" t="n">
-        <v>10.74933455546547</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="M4" t="n">
-        <v>25.75966359751175</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="N4" t="n">
-        <v>40.76999263955803</v>
+        <v>46.24394300832439</v>
       </c>
       <c r="O4" t="n">
-        <v>55.7803216816043</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="P4" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="Q4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="R4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S4" t="n">
-        <v>60.64779410927788</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="T4" t="n">
-        <v>60.64779410927788</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="U4" t="n">
-        <v>60.64779410927788</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="V4" t="n">
-        <v>60.64779410927788</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="W4" t="n">
-        <v>60.64779410927788</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="X4" t="n">
-        <v>60.64779410927788</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.33269458673296</v>
+        <v>16.29603734250072</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.78865567647888</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="C5" t="n">
-        <v>38.78865567647888</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="D5" t="n">
-        <v>23.47355615393395</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="E5" t="n">
-        <v>23.47355615393395</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="F5" t="n">
         <v>16.52805540473048</v>
@@ -4573,16 +4573,16 @@
         <v>16.22328492423183</v>
       </c>
       <c r="L5" t="n">
-        <v>31.23361396627811</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="M5" t="n">
+        <v>25.46633770769475</v>
+      </c>
+      <c r="N5" t="n">
         <v>40.47666674974103</v>
       </c>
-      <c r="N5" t="n">
-        <v>55.48699579178731</v>
-      </c>
       <c r="O5" t="n">
-        <v>55.48699579178731</v>
+        <v>40.47666674974103</v>
       </c>
       <c r="P5" t="n">
         <v>55.48699579178731</v>
@@ -4591,28 +4591,28 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R5" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S5" t="n">
-        <v>54.10375519902379</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T5" t="n">
-        <v>54.10375519902379</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U5" t="n">
-        <v>54.10375519902379</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V5" t="n">
-        <v>54.10375519902379</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W5" t="n">
-        <v>54.10375519902379</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X5" t="n">
-        <v>54.10375519902379</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.78865567647888</v>
+        <v>31.8431549272754</v>
       </c>
     </row>
     <row r="6">
@@ -4649,16 +4649,16 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K6" t="n">
-        <v>16.22328492423183</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="L6" t="n">
-        <v>16.22328492423183</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="M6" t="n">
-        <v>16.22328492423183</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="N6" t="n">
-        <v>30.62713602518533</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="O6" t="n">
         <v>30.62713602518533</v>
@@ -4670,22 +4670,22 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R6" t="n">
+        <v>60.64779410927788</v>
+      </c>
+      <c r="S6" t="n">
+        <v>60.64779410927788</v>
+      </c>
+      <c r="T6" t="n">
+        <v>60.64779410927788</v>
+      </c>
+      <c r="U6" t="n">
         <v>45.33269458673296</v>
       </c>
-      <c r="S6" t="n">
+      <c r="V6" t="n">
         <v>30.01759506418804</v>
       </c>
-      <c r="T6" t="n">
-        <v>30.01759506418804</v>
-      </c>
-      <c r="U6" t="n">
-        <v>16.52805540473048</v>
-      </c>
-      <c r="V6" t="n">
-        <v>16.52805540473048</v>
-      </c>
       <c r="W6" t="n">
-        <v>16.52805540473048</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="X6" t="n">
         <v>1.212955882185558</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="C7" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="D7" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="E7" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="F7" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="G7" t="n">
-        <v>31.8431549272754</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="H7" t="n">
-        <v>31.8431549272754</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="I7" t="n">
-        <v>16.52805540473048</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="J7" t="n">
-        <v>1.212955882185558</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="K7" t="n">
         <v>1.212955882185558</v>
       </c>
       <c r="L7" t="n">
-        <v>16.22328492423183</v>
+        <v>10.74933455546547</v>
       </c>
       <c r="M7" t="n">
-        <v>31.23361396627811</v>
+        <v>25.75966359751175</v>
       </c>
       <c r="N7" t="n">
-        <v>46.24394300832439</v>
+        <v>40.76999263955803</v>
       </c>
       <c r="O7" t="n">
         <v>55.7803216816043</v>
@@ -4758,19 +4758,19 @@
         <v>45.33269458673296</v>
       </c>
       <c r="U7" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V7" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W7" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X7" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="Y7" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416.0617070353563</v>
+        <v>266.9274653891283</v>
       </c>
       <c r="C8" t="n">
-        <v>330.4649977954835</v>
+        <v>161.8613777539366</v>
       </c>
       <c r="D8" t="n">
-        <v>330.4649977954835</v>
+        <v>134.0817409166654</v>
       </c>
       <c r="E8" t="n">
-        <v>225.3989101602925</v>
+        <v>134.0817409166654</v>
       </c>
       <c r="F8" t="n">
-        <v>218.4534094110891</v>
+        <v>127.136240167462</v>
       </c>
       <c r="G8" t="n">
-        <v>113.3873217758981</v>
+        <v>113.3873217758989</v>
       </c>
       <c r="H8" t="n">
-        <v>113.3873217758981</v>
+        <v>113.3873217758989</v>
       </c>
       <c r="I8" t="n">
-        <v>8.321234140707126</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="J8" t="n">
-        <v>53.32066651741293</v>
+        <v>111.2965066319586</v>
       </c>
       <c r="K8" t="n">
-        <v>53.32066651741293</v>
+        <v>111.2965066319586</v>
       </c>
       <c r="L8" t="n">
-        <v>84.14404007364294</v>
+        <v>142.1198801881895</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1193125648936</v>
+        <v>208.0862597418583</v>
       </c>
       <c r="N8" t="n">
-        <v>258.7669054842993</v>
+        <v>279.7338526612649</v>
       </c>
       <c r="O8" t="n">
-        <v>313.0864345441056</v>
+        <v>334.0533817210722</v>
       </c>
       <c r="P8" t="n">
-        <v>416.0617070353563</v>
+        <v>345.9128421879422</v>
       </c>
       <c r="Q8" t="n">
-        <v>416.0617070353563</v>
+        <v>416.0617070353592</v>
       </c>
       <c r="R8" t="n">
-        <v>416.0617070353563</v>
+        <v>371.99355302432</v>
       </c>
       <c r="S8" t="n">
-        <v>416.0617070353563</v>
+        <v>371.99355302432</v>
       </c>
       <c r="T8" t="n">
-        <v>416.0617070353563</v>
+        <v>371.99355302432</v>
       </c>
       <c r="U8" t="n">
-        <v>416.0617070353563</v>
+        <v>266.9274653891283</v>
       </c>
       <c r="V8" t="n">
-        <v>416.0617070353563</v>
+        <v>266.9274653891283</v>
       </c>
       <c r="W8" t="n">
-        <v>416.0617070353563</v>
+        <v>266.9274653891283</v>
       </c>
       <c r="X8" t="n">
-        <v>416.0617070353563</v>
+        <v>266.9274653891283</v>
       </c>
       <c r="Y8" t="n">
-        <v>416.0617070353563</v>
+        <v>266.9274653891283</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.321234140707126</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="C9" t="n">
-        <v>8.321234140707126</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="D9" t="n">
-        <v>8.321234140707126</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="E9" t="n">
-        <v>8.321234140707126</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="F9" t="n">
-        <v>8.321234140707126</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="G9" t="n">
-        <v>8.321234140707126</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="H9" t="n">
-        <v>8.321234140707126</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="I9" t="n">
-        <v>8.321234140707126</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="J9" t="n">
-        <v>50.82861038564508</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="K9" t="n">
-        <v>59.03062809423424</v>
+        <v>42.338329599793</v>
       </c>
       <c r="L9" t="n">
-        <v>116.3817942504398</v>
+        <v>99.6894957559992</v>
       </c>
       <c r="M9" t="n">
-        <v>202.6647682472496</v>
+        <v>202.6647682472506</v>
       </c>
       <c r="N9" t="n">
-        <v>305.6400407385003</v>
+        <v>305.640040738502</v>
       </c>
       <c r="O9" t="n">
-        <v>377.6225020168627</v>
+        <v>377.6225020168651</v>
       </c>
       <c r="P9" t="n">
-        <v>416.0617070353563</v>
+        <v>416.0617070353592</v>
       </c>
       <c r="Q9" t="n">
-        <v>416.0617070353563</v>
+        <v>416.0617070353592</v>
       </c>
       <c r="R9" t="n">
-        <v>371.6447257080988</v>
+        <v>416.0617070353592</v>
       </c>
       <c r="S9" t="n">
-        <v>266.5786380729078</v>
+        <v>416.0617070353592</v>
       </c>
       <c r="T9" t="n">
-        <v>266.5786380729078</v>
+        <v>416.0617070353592</v>
       </c>
       <c r="U9" t="n">
-        <v>218.4534094110891</v>
+        <v>416.0617070353592</v>
       </c>
       <c r="V9" t="n">
-        <v>218.4534094110891</v>
+        <v>416.0617070353592</v>
       </c>
       <c r="W9" t="n">
-        <v>113.3873217758981</v>
+        <v>323.5194970462824</v>
       </c>
       <c r="X9" t="n">
-        <v>113.3873217758981</v>
+        <v>218.4534094110907</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.321234140707126</v>
+        <v>113.3873217758989</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>205.9295317649743</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="C10" t="n">
-        <v>205.9295317649743</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="D10" t="n">
-        <v>100.8634441297834</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="E10" t="n">
-        <v>100.8634441297834</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="F10" t="n">
-        <v>8.321234140707126</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="G10" t="n">
-        <v>8.321234140707126</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="H10" t="n">
-        <v>8.321234140707126</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="I10" t="n">
-        <v>8.321234140707126</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="J10" t="n">
-        <v>8.321234140707126</v>
+        <v>8.321234140707185</v>
       </c>
       <c r="K10" t="n">
-        <v>73.53581884437469</v>
+        <v>73.53581884437504</v>
       </c>
       <c r="L10" t="n">
-        <v>121.9661535639732</v>
+        <v>176.5110913356264</v>
       </c>
       <c r="M10" t="n">
-        <v>224.9414260552239</v>
+        <v>176.5110913356264</v>
       </c>
       <c r="N10" t="n">
-        <v>224.9414260552239</v>
+        <v>224.9414260552258</v>
       </c>
       <c r="O10" t="n">
-        <v>327.9166985464745</v>
+        <v>327.9166985464772</v>
       </c>
       <c r="P10" t="n">
-        <v>416.0617070353563</v>
+        <v>416.0617070353592</v>
       </c>
       <c r="Q10" t="n">
-        <v>416.0617070353563</v>
+        <v>393.1986877554865</v>
       </c>
       <c r="R10" t="n">
-        <v>416.0617070353563</v>
+        <v>393.1986877554865</v>
       </c>
       <c r="S10" t="n">
-        <v>416.0617070353563</v>
+        <v>323.5194970462824</v>
       </c>
       <c r="T10" t="n">
-        <v>310.9956194001653</v>
+        <v>323.5194970462824</v>
       </c>
       <c r="U10" t="n">
-        <v>310.9956194001653</v>
+        <v>323.5194970462824</v>
       </c>
       <c r="V10" t="n">
-        <v>310.9956194001653</v>
+        <v>323.5194970462824</v>
       </c>
       <c r="W10" t="n">
-        <v>310.9956194001653</v>
+        <v>323.5194970462824</v>
       </c>
       <c r="X10" t="n">
-        <v>310.9956194001653</v>
+        <v>218.4534094110907</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.9956194001653</v>
+        <v>113.3873217758989</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.0424953278208</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1478.890260236569</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1189.473090199608</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>961.4835393015907</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>740.6909601580605</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273906</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>692.9625378792909</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.4916164683287</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>923.4916164683287</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>773.374977055993</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>625.4618834735999</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5737,25 +5737,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,25 +5764,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>315.9123021921476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921476</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898186995</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1444.131742904239</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1154.714572867279</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>926.7250219692613</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5974,25 +5974,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,22 +6001,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>378.6527890600114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>231.762841562101</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>231.762841562101</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,25 +6238,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>639.6425904082686</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C28" t="n">
-        <v>470.7064074803617</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>1042.083634382038</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>821.2910552385083</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,7 +6475,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6542,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683104</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>376.4492432300688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>376.4492432300688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118214</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K36" t="n">
-        <v>2555.737047940761</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L36" t="n">
-        <v>3051.06265415652</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M36" t="n">
-        <v>3051.06265415652</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>3678.660617711127</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>4230.570347950414</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>4654.193497445482</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368213</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>481.4479471244855</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961526</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1878.013763195024</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1623.329274989137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1333.912104952176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,7 +7444,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2233.355914590558</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K42" t="n">
-        <v>2567.280686761779</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L42" t="n">
-        <v>2567.280686761779</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M42" t="n">
-        <v>3164.65917438833</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>3445.398957336244</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>130.0655716250986</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1964.291482935239</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V43" t="n">
-        <v>1709.606994729352</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="44">
@@ -7630,40 +7630,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>150.8995423128889</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832229</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134626</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -7984,13 +7984,13 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L2" t="n">
-        <v>228.0982013216979</v>
+        <v>228.7108053025997</v>
       </c>
       <c r="M2" t="n">
-        <v>220.7868673978199</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N2" t="n">
-        <v>204.2917325281876</v>
+        <v>213.6281494811804</v>
       </c>
       <c r="O2" t="n">
         <v>221.538799378194</v>
@@ -7999,7 +7999,7 @@
         <v>226.149311848474</v>
       </c>
       <c r="Q2" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>140.8394464083196</v>
@@ -8072,7 +8072,7 @@
         <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8526396814495</v>
+        <v>139.2229632339716</v>
       </c>
       <c r="P3" t="n">
         <v>119.5899201578276</v>
@@ -8142,7 +8142,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>135.1282394249294</v>
+        <v>140.6574822216631</v>
       </c>
       <c r="M4" t="n">
         <v>144.1881980719757</v>
@@ -8151,10 +8151,10 @@
         <v>133.1833473911586</v>
       </c>
       <c r="O4" t="n">
-        <v>144.6920843289826</v>
+        <v>144.0794803480808</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8221,7 +8221,7 @@
         <v>217.342912363454</v>
       </c>
       <c r="L5" t="n">
-        <v>228.7108053025997</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
         <v>214.9613358234932</v>
@@ -8233,7 +8233,7 @@
         <v>206.3768508508745</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>226.149311848474</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,7 +8297,7 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>140.8394464083196</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
         <v>122.1984598562864</v>
@@ -8309,7 +8309,7 @@
         <v>126.2993043714169</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>139.8355672148734</v>
       </c>
       <c r="P6" t="n">
         <v>134.7518686851471</v>
@@ -8379,7 +8379,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>140.6574822216631</v>
+        <v>135.1282394249294</v>
       </c>
       <c r="M7" t="n">
         <v>144.1881980719757</v>
@@ -8388,7 +8388,7 @@
         <v>133.1833473911586</v>
       </c>
       <c r="O7" t="n">
-        <v>139.1628415322489</v>
+        <v>144.6920843289826</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>82.95219816173972</v>
+        <v>141.5136528228964</v>
       </c>
       <c r="K8" t="n">
-        <v>4.949091926399518</v>
+        <v>4.949091926398808</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>37.38272013897256</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8470,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>92.03617376200145</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>39.6634198842435</v>
+        <v>110.5208591240581</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>84.27835645612663</v>
+        <v>41.34161277437083</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>26.0758361116123</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>16.86090757014225</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.4682887175906</v>
+        <v>24.46828871759023</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,16 +8616,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>71.0117563815691</v>
+        <v>126.1076531206121</v>
       </c>
       <c r="M10" t="n">
-        <v>124.0173869348075</v>
+        <v>20.00196017596802</v>
       </c>
       <c r="N10" t="n">
-        <v>11.58946341507016</v>
+        <v>60.50899343486711</v>
       </c>
       <c r="O10" t="n">
-        <v>135.2384436656254</v>
+        <v>135.2384436656258</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>-2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>-1.273279018777706e-12</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-1.785683111366094e-12</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-2.9347162262728e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.103562085036398e-12</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>44.73700564187212</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>6.176967258617793</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>105.2672314396029</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>181.4067325814607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>10.32607348286541</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
-        <v>3.727996117235961</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>124.5310997715148</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>31.13893193492419</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>127.7255247667961</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>129.6605885985414</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>187.7316302469138</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>45.37941682721006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>55.74112246243945</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.9259388694757718</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>816453.5007302944</v>
+        <v>816453.5007302943</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>794897.2062429163</v>
+        <v>794897.2062429162</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>794897.2062429162</v>
+        <v>794897.2062429163</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
         <v>636307.371644819</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597551</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597543</v>
+        <v>625538.6147597551</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>357912.3110366672</v>
+        <v>357912.3110366686</v>
       </c>
       <c r="E3" t="n">
-        <v>1080121.758724495</v>
+        <v>1080121.758724494</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3967.032860481986</v>
+        <v>3967.032860481976</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22488.01565909353</v>
+        <v>22488.01565909371</v>
       </c>
       <c r="M3" t="n">
-        <v>266322.5358175751</v>
+        <v>266322.5358175749</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>405703.6705393202</v>
       </c>
       <c r="D4" t="n">
-        <v>310629.0408162415</v>
+        <v>310629.0408162411</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744224</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744224</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744228</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744248</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744246</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744284</v>
@@ -26459,7 +26459,7 @@
         <v>8727.256391744284</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>35312.90995413795</v>
       </c>
       <c r="D5" t="n">
-        <v>49123.28007136602</v>
+        <v>49123.28007136609</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156462.7313697024</v>
+        <v>156462.7313697019</v>
       </c>
       <c r="C6" t="n">
-        <v>195290.7911513616</v>
+        <v>195290.7911513617</v>
       </c>
       <c r="D6" t="n">
-        <v>-81357.26027945566</v>
+        <v>-81357.26027945671</v>
       </c>
       <c r="E6" t="n">
-        <v>-564432.9301803918</v>
+        <v>-564780.3094347474</v>
       </c>
       <c r="F6" t="n">
-        <v>515688.828544103</v>
+        <v>515341.4492897466</v>
       </c>
       <c r="G6" t="n">
-        <v>515688.8285441037</v>
+        <v>515341.4492897466</v>
       </c>
       <c r="H6" t="n">
-        <v>515688.8285441035</v>
+        <v>515341.4492897465</v>
       </c>
       <c r="I6" t="n">
-        <v>515688.8285441038</v>
+        <v>515341.4492897464</v>
       </c>
       <c r="J6" t="n">
-        <v>511721.7956836217</v>
+        <v>511374.4164292644</v>
       </c>
       <c r="K6" t="n">
-        <v>515688.8285441037</v>
+        <v>515341.4492897466</v>
       </c>
       <c r="L6" t="n">
-        <v>493200.8128850101</v>
+        <v>492853.433630653</v>
       </c>
       <c r="M6" t="n">
-        <v>249366.2927265284</v>
+        <v>249018.9134721717</v>
       </c>
       <c r="N6" t="n">
-        <v>515688.8285441035</v>
+        <v>515341.4492897464</v>
       </c>
       <c r="O6" t="n">
-        <v>515688.8285441034</v>
+        <v>515341.4492897466</v>
       </c>
       <c r="P6" t="n">
-        <v>515688.8285441029</v>
+        <v>515341.4492897468</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>420.7129414875507</v>
+        <v>420.7129414875521</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,16 +26795,16 @@
         <v>15.16194852731947</v>
       </c>
       <c r="D4" t="n">
-        <v>104.0154267588391</v>
+        <v>104.0154267588398</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>385.6916807684254</v>
+        <v>385.6916807684267</v>
       </c>
       <c r="E3" t="n">
-        <v>947.262558854123</v>
+        <v>947.2625588541216</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.8534782315196</v>
+        <v>88.85347823152034</v>
       </c>
       <c r="E4" t="n">
         <v>1068.692861340809</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.16194852731951</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.8534782315196</v>
+        <v>88.85347823152034</v>
       </c>
       <c r="M4" t="n">
         <v>1068.692861340809</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.8534782315196</v>
+        <v>88.85347823152034</v>
       </c>
       <c r="M4" t="n">
         <v>1068.692861340809</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.5718931361611</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>393.5214014788485</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>125.8633331579598</v>
       </c>
       <c r="S2" t="n">
-        <v>199.3332420052463</v>
+        <v>190.6498919990783</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>236.1724412614918</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>153.1785393870043</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,10 +27466,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>144.290436192538</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>129.9072638660644</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -27478,7 +27478,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>155.1220240940137</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>210.7744777148743</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27526,7 +27526,7 @@
         <v>190.611036676158</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5207472499849</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.6700316546178</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27551,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>154.5731820024957</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>138.3893406547115</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>65.71188435578699</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>222.9160118599466</v>
+        <v>207.7540633326271</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>214.0914113405653</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>203.4227048247753</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>339.5210930933635</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>391.714097214392</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>125.8633331579598</v>
       </c>
       <c r="S5" t="n">
-        <v>199.3332420052463</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>371.0759901287341</v>
+        <v>372.8832943931906</v>
       </c>
     </row>
     <row r="6">
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>80.3188953730601</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>155.1220240940137</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>212.5817819793308</v>
+        <v>210.7744777148743</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.6386386221058</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>236.5330346336001</v>
       </c>
       <c r="X6" t="n">
-        <v>190.611036676158</v>
+        <v>192.4183409406145</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27788,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>152.7658777380392</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>148.0813419534068</v>
       </c>
       <c r="I7" t="n">
-        <v>138.3893406547115</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>73.73230790717892</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
-        <v>272.9609403794588</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>280.5321496235335</v>
+        <v>261.2574650121678</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>327.1812011517845</v>
       </c>
       <c r="E8" t="n">
-        <v>277.9149433134227</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>309.5960024488083</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>322.1536909117094</v>
+        <v>322.1536909117093</v>
       </c>
       <c r="I8" t="n">
-        <v>41.25629928714955</v>
+        <v>41.25629928714859</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.62747247092913</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>170.4793815293707</v>
+        <v>170.4793815293706</v>
       </c>
       <c r="T8" t="n">
         <v>215.6921474481042</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2103482432375</v>
+        <v>147.1949214843977</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>62.51775689102753</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27952,7 +27952,7 @@
         <v>103.4957282255947</v>
       </c>
       <c r="I9" t="n">
-        <v>58.24006124125212</v>
+        <v>58.24006124125202</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>43.97281151398474</v>
       </c>
       <c r="S9" t="n">
-        <v>50.85907163556691</v>
+        <v>154.8744983944059</v>
       </c>
       <c r="T9" t="n">
         <v>196.5172268719248</v>
       </c>
       <c r="U9" t="n">
-        <v>178.2378708555638</v>
+        <v>225.8818472307643</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>147.6795564020806</v>
+        <v>160.0781952717335</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>101.7575584446377</v>
       </c>
       <c r="Y9" t="n">
-        <v>101.6672690184653</v>
+        <v>101.6672690184646</v>
       </c>
     </row>
     <row r="10">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.81655342309823</v>
+        <v>75.81655342309749</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>44.60004625937329</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>53.80426013374577</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.2323166770878</v>
       </c>
       <c r="H10" t="n">
-        <v>155.4819715767048</v>
+        <v>155.4819715767047</v>
       </c>
       <c r="I10" t="n">
-        <v>132.6354190183924</v>
+        <v>132.6354190183923</v>
       </c>
       <c r="J10" t="n">
-        <v>39.72172854374357</v>
+        <v>39.7217285437434</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.63438908707423</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>143.1811584493428</v>
+        <v>143.1811584493427</v>
       </c>
       <c r="S10" t="n">
-        <v>210.7951765807159</v>
+        <v>141.8127777786038</v>
       </c>
       <c r="T10" t="n">
-        <v>120.6886039399482</v>
+        <v>224.7040306987872</v>
       </c>
       <c r="U10" t="n">
         <v>286.2776477556889</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>121.6942286301973</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>114.569226593255</v>
       </c>
     </row>
     <row r="11">
@@ -31074,16 +31074,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870377</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779989</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335884</v>
@@ -31141,7 +31141,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
         <v>17.92262575689049</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
         <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
         <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
         <v>9.899534402948818</v>
@@ -31223,10 +31223,10 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938412</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
         <v>5.288210368587925</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.69130830748764</v>
+        <v>1.691308307487645</v>
       </c>
       <c r="H8" t="n">
-        <v>17.3211112040578</v>
+        <v>17.32111120405785</v>
       </c>
       <c r="I8" t="n">
-        <v>65.2041635244173</v>
+        <v>65.20416352441751</v>
       </c>
       <c r="J8" t="n">
-        <v>143.5476784626292</v>
+        <v>143.5476784626297</v>
       </c>
       <c r="K8" t="n">
-        <v>215.140759118581</v>
+        <v>215.1407591185817</v>
       </c>
       <c r="L8" t="n">
-        <v>266.9011357338559</v>
+        <v>266.9011357338568</v>
       </c>
       <c r="M8" t="n">
-        <v>296.9789398471393</v>
+        <v>296.9789398471402</v>
       </c>
       <c r="N8" t="n">
-        <v>301.7843695757886</v>
+        <v>301.7843695757895</v>
       </c>
       <c r="O8" t="n">
-        <v>284.9664225932083</v>
+        <v>284.9664225932092</v>
       </c>
       <c r="P8" t="n">
-        <v>243.2122487521071</v>
+        <v>243.2122487521079</v>
       </c>
       <c r="Q8" t="n">
-        <v>182.642269990206</v>
+        <v>182.6422699902066</v>
       </c>
       <c r="R8" t="n">
-        <v>106.2416454702205</v>
+        <v>106.2416454702209</v>
       </c>
       <c r="S8" t="n">
-        <v>38.54068805687463</v>
+        <v>38.54068805687476</v>
       </c>
       <c r="T8" t="n">
-        <v>7.403702116027147</v>
+        <v>7.403702116027171</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1353046645990112</v>
+        <v>0.1353046645990116</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9049297231996374</v>
+        <v>0.9049297231996404</v>
       </c>
       <c r="H9" t="n">
-        <v>8.739716010901763</v>
+        <v>8.739716010901791</v>
       </c>
       <c r="I9" t="n">
-        <v>31.15657161016296</v>
+        <v>31.15657161016306</v>
       </c>
       <c r="J9" t="n">
-        <v>85.49601389229558</v>
+        <v>85.49601389229586</v>
       </c>
       <c r="K9" t="n">
-        <v>146.1263053466713</v>
+        <v>146.1263053466718</v>
       </c>
       <c r="L9" t="n">
-        <v>196.4848506447283</v>
+        <v>196.4848506447289</v>
       </c>
       <c r="M9" t="n">
-        <v>229.2885531107151</v>
+        <v>229.2885531107159</v>
       </c>
       <c r="N9" t="n">
-        <v>235.3571388421724</v>
+        <v>235.3571388421731</v>
       </c>
       <c r="O9" t="n">
-        <v>215.3058012912751</v>
+        <v>215.3058012912758</v>
       </c>
       <c r="P9" t="n">
-        <v>172.8018872309904</v>
+        <v>172.801887230991</v>
       </c>
       <c r="Q9" t="n">
-        <v>115.5134853684309</v>
+        <v>115.5134853684313</v>
       </c>
       <c r="R9" t="n">
-        <v>56.18502263865821</v>
+        <v>56.1850226386584</v>
       </c>
       <c r="S9" t="n">
-        <v>16.80867270943185</v>
+        <v>16.80867270943191</v>
       </c>
       <c r="T9" t="n">
-        <v>3.647501822896783</v>
+        <v>3.647501822896795</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05953485021050248</v>
+        <v>0.05953485021050268</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.758662681370993</v>
+        <v>0.7586626813709955</v>
       </c>
       <c r="H10" t="n">
-        <v>6.745200930734834</v>
+        <v>6.745200930734856</v>
       </c>
       <c r="I10" t="n">
-        <v>22.81505590886587</v>
+        <v>22.81505590886594</v>
       </c>
       <c r="J10" t="n">
-        <v>53.6374515729292</v>
+        <v>53.63745157292938</v>
       </c>
       <c r="K10" t="n">
-        <v>88.14280970837535</v>
+        <v>88.14280970837564</v>
       </c>
       <c r="L10" t="n">
-        <v>112.7924499194657</v>
+        <v>112.792449919466</v>
       </c>
       <c r="M10" t="n">
-        <v>118.9238237716366</v>
+        <v>118.923823771637</v>
       </c>
       <c r="N10" t="n">
-        <v>116.096081050163</v>
+        <v>116.0960810501634</v>
       </c>
       <c r="O10" t="n">
-        <v>107.2335215450564</v>
+        <v>107.2335215450567</v>
       </c>
       <c r="P10" t="n">
-        <v>91.75680284508806</v>
+        <v>91.75680284508836</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.52765416462016</v>
+        <v>63.52765416462037</v>
       </c>
       <c r="R10" t="n">
-        <v>34.11223292782664</v>
+        <v>34.11223292782675</v>
       </c>
       <c r="S10" t="n">
-        <v>13.2214214562563</v>
+        <v>13.22142145625634</v>
       </c>
       <c r="T10" t="n">
-        <v>3.241558729494242</v>
+        <v>3.241558729494252</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04138160080205421</v>
+        <v>0.04138160080205434</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>752.2150000824574</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N18" t="n">
-        <v>658.2124561388956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>360.3952288121455</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M24" t="n">
-        <v>491.1355220041054</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>604.2458225991924</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>640.2652944187041</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K36" t="n">
-        <v>312.3207226334972</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>508.8976500257889</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34222,7 +34222,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>414.9172504145588</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34234,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>182.7118610708585</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34456,7 +34456,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -34468,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34704,13 +34704,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14.54934454641767</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="M2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.336416952992847</v>
       </c>
       <c r="O2" t="n">
         <v>15.16194852731947</v>
@@ -34719,7 +34719,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522132</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>15.16194852731947</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.179020993895531</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>9.632705730585775</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="M4" t="n">
         <v>15.16194852731947</v>
@@ -34871,10 +34871,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="O4" t="n">
-        <v>15.16194852731947</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="P4" t="n">
-        <v>4.9166388158319</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="L5" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>9.336416952992847</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="Q5" t="n">
         <v>5.212927593424824</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>14.54934454641767</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="P6" t="n">
         <v>15.16194852731947</v>
@@ -35099,7 +35099,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>15.16194852731947</v>
+        <v>9.632705730585775</v>
       </c>
       <c r="M7" t="n">
         <v>15.16194852731947</v>
@@ -35108,7 +35108,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="O7" t="n">
-        <v>9.632705730585771</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="P7" t="n">
         <v>4.916638815831901</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>45.45397209768263</v>
+        <v>104.0154267588398</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>31.1347207638687</v>
+        <v>31.13472076386955</v>
       </c>
       <c r="M8" t="n">
-        <v>104.0154267588391</v>
+        <v>66.63270661986749</v>
       </c>
       <c r="N8" t="n">
-        <v>72.37130597919764</v>
+        <v>72.37130597919861</v>
       </c>
       <c r="O8" t="n">
-        <v>54.86821117152155</v>
+        <v>54.86821117152252</v>
       </c>
       <c r="P8" t="n">
-        <v>104.0154267588391</v>
+        <v>11.9792529968384</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>70.85743923981518</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>42.93674368175551</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>8.28486637231228</v>
+        <v>34.36070248392507</v>
       </c>
       <c r="L9" t="n">
-        <v>57.93047086485413</v>
+        <v>57.93047086485475</v>
       </c>
       <c r="M9" t="n">
-        <v>87.15451918869678</v>
+        <v>104.0154267588398</v>
       </c>
       <c r="N9" t="n">
-        <v>104.0154267588391</v>
+        <v>104.0154267588398</v>
       </c>
       <c r="O9" t="n">
-        <v>72.70955684683071</v>
+        <v>72.70955684683139</v>
       </c>
       <c r="P9" t="n">
-        <v>38.82747981666017</v>
+        <v>38.82747981666074</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>65.8733178824925</v>
+        <v>65.87331788249278</v>
       </c>
       <c r="L10" t="n">
-        <v>48.91953001979647</v>
+        <v>104.0154267588398</v>
       </c>
       <c r="M10" t="n">
-        <v>104.0154267588391</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>48.91953001979734</v>
       </c>
       <c r="O10" t="n">
-        <v>104.0154267588391</v>
+        <v>104.0154267588398</v>
       </c>
       <c r="P10" t="n">
-        <v>89.03536210998155</v>
+        <v>89.03536210998185</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35427,7 +35427,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>620.8732879991242</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N18" t="n">
-        <v>526.8707440555623</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5537898377865</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M24" t="n">
-        <v>349.0014880820871</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>472.904110515859</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>498.1312604966859</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K36" t="n">
-        <v>174.4792836591382</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>366.7636161037706</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>283.5755383312255</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37882,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>55.8742344041918</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38104,7 +38104,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2393118.204935051</v>
+        <v>2394878.735237836</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13.35464426286299</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -709,10 +709,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="S2" t="n">
+        <v>6.478598521151547</v>
+      </c>
+      <c r="T2" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>13.35464426286299</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>13.58434214447045</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>13.58434214447045</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15.16194852731947</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.16194852731947</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,14 +943,14 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>6.478598521151554</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.35464426286299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>15.16194852731947</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="V6" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="X6" t="n">
-        <v>13.35464426286299</v>
-      </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>13.58434214447045</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>15.16194852731947</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>27.50184046889722</v>
       </c>
       <c r="C8" t="n">
-        <v>104.0154267588398</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="D8" t="n">
-        <v>27.50184046889843</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.6114292076474</v>
+        <v>13.61142920764741</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>104.0154267588398</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.62747247092879</v>
+        <v>43.62747247092922</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>104.0154267588398</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>104.0154267588389</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.0154267588398</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>91.61678788918528</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>91.61678788918609</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>104.0154267588398</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>104.0154267588398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.0154267588398</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>91.61678788918528</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.63438908707402</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>68.98239880211209</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>104.0154267588398</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.0154267588398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>206.632242098073</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>139.1886739667897</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>120.4424239494343</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>164.9623005163833</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>193.9313104494268</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>108.6115798077508</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>43.87236189622282</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>58.24570521548608</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>54.3264904208971</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>35.88641949135547</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>22.65115569188744</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534457</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.01759506418804</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="C2" t="n">
-        <v>30.01759506418804</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="D2" t="n">
-        <v>30.01759506418804</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="E2" t="n">
-        <v>30.01759506418804</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="F2" t="n">
         <v>16.52805540473048</v>
@@ -4333,13 +4333,13 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K2" t="n">
-        <v>1.212955882185558</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="L2" t="n">
-        <v>16.22328492423183</v>
+        <v>25.46633770769475</v>
       </c>
       <c r="M2" t="n">
-        <v>16.22328492423183</v>
+        <v>25.46633770769475</v>
       </c>
       <c r="N2" t="n">
         <v>25.46633770769475</v>
@@ -4357,25 +4357,25 @@
         <v>45.33269458673296</v>
       </c>
       <c r="S2" t="n">
-        <v>30.01759506418804</v>
+        <v>38.78865567647888</v>
       </c>
       <c r="T2" t="n">
-        <v>30.01759506418804</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="U2" t="n">
-        <v>30.01759506418804</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="V2" t="n">
-        <v>30.01759506418804</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="W2" t="n">
-        <v>30.01759506418804</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="X2" t="n">
-        <v>30.01759506418804</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="Y2" t="n">
-        <v>30.01759506418804</v>
+        <v>23.47355615393395</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.212955882185558</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="C3" t="n">
-        <v>1.212955882185558</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="D3" t="n">
-        <v>1.212955882185558</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="E3" t="n">
-        <v>1.212955882185558</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="F3" t="n">
-        <v>1.212955882185558</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="G3" t="n">
-        <v>1.212955882185558</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="H3" t="n">
-        <v>1.212955882185558</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="I3" t="n">
         <v>1.212955882185558</v>
       </c>
       <c r="J3" t="n">
-        <v>1.212955882185558</v>
+        <v>7.519576199182469</v>
       </c>
       <c r="K3" t="n">
-        <v>16.22328492423183</v>
+        <v>22.52990524122875</v>
       </c>
       <c r="L3" t="n">
-        <v>31.23361396627811</v>
+        <v>22.52990524122875</v>
       </c>
       <c r="M3" t="n">
-        <v>46.24394300832439</v>
+        <v>22.52990524122875</v>
       </c>
       <c r="N3" t="n">
-        <v>46.24394300832439</v>
+        <v>22.52990524122875</v>
       </c>
       <c r="O3" t="n">
-        <v>60.64779410927788</v>
+        <v>37.54023428327503</v>
       </c>
       <c r="P3" t="n">
-        <v>60.64779410927788</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="Q3" t="n">
         <v>60.64779410927788</v>
@@ -4436,25 +4436,25 @@
         <v>60.64779410927788</v>
       </c>
       <c r="S3" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="T3" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="U3" t="n">
-        <v>30.01759506418804</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="V3" t="n">
-        <v>30.01759506418804</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="W3" t="n">
-        <v>30.01759506418804</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="X3" t="n">
-        <v>14.70249554164312</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.70249554164312</v>
+        <v>60.64779410927788</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.29603734250072</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="C4" t="n">
-        <v>16.29603734250072</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="D4" t="n">
         <v>16.29603734250072</v>
@@ -4503,7 +4503,7 @@
         <v>46.24394300832439</v>
       </c>
       <c r="O4" t="n">
-        <v>60.64779410927788</v>
+        <v>55.7803216816043</v>
       </c>
       <c r="P4" t="n">
         <v>60.64779410927788</v>
@@ -4515,25 +4515,25 @@
         <v>45.33269458673296</v>
       </c>
       <c r="S4" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T4" t="n">
-        <v>16.29603734250072</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U4" t="n">
-        <v>16.29603734250072</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V4" t="n">
-        <v>16.29603734250072</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W4" t="n">
-        <v>16.29603734250072</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X4" t="n">
-        <v>16.29603734250072</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.29603734250072</v>
+        <v>45.33269458673296</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>38.78865567647887</v>
+      </c>
+      <c r="C5" t="n">
+        <v>38.78865567647887</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.78865567647887</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38.78865567647887</v>
+      </c>
+      <c r="F5" t="n">
         <v>31.8431549272754</v>
       </c>
-      <c r="C5" t="n">
-        <v>31.8431549272754</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.8431549272754</v>
-      </c>
-      <c r="E5" t="n">
-        <v>31.8431549272754</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>16.52805540473048</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.212955882185558</v>
-      </c>
       <c r="H5" t="n">
-        <v>1.212955882185558</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="I5" t="n">
         <v>1.212955882185558</v>
@@ -4570,7 +4570,7 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K5" t="n">
-        <v>16.22328492423183</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="L5" t="n">
         <v>16.22328492423183</v>
@@ -4579,7 +4579,7 @@
         <v>25.46633770769475</v>
       </c>
       <c r="N5" t="n">
-        <v>40.47666674974103</v>
+        <v>25.46633770769475</v>
       </c>
       <c r="O5" t="n">
         <v>40.47666674974103</v>
@@ -4591,10 +4591,10 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R5" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="S5" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="T5" t="n">
         <v>45.33269458673296</v>
@@ -4606,13 +4606,13 @@
         <v>45.33269458673296</v>
       </c>
       <c r="W5" t="n">
-        <v>45.33269458673296</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="X5" t="n">
-        <v>45.33269458673296</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.8431549272754</v>
+        <v>38.78865567647887</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K6" t="n">
-        <v>1.212955882185558</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="L6" t="n">
-        <v>1.212955882185558</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="M6" t="n">
-        <v>1.212955882185558</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="N6" t="n">
-        <v>15.61680698313905</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="O6" t="n">
-        <v>30.62713602518533</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="P6" t="n">
-        <v>45.6374650672316</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="Q6" t="n">
         <v>60.64779410927788</v>
@@ -4679,16 +4679,16 @@
         <v>60.64779410927788</v>
       </c>
       <c r="U6" t="n">
-        <v>45.33269458673296</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="V6" t="n">
-        <v>30.01759506418804</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="W6" t="n">
-        <v>14.70249554164312</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="X6" t="n">
-        <v>1.212955882185558</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="Y6" t="n">
         <v>1.212955882185558</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="C7" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="D7" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E7" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F7" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G7" t="n">
-        <v>30.01759506418804</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="J7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K7" t="n">
         <v>1.212955882185558</v>
       </c>
       <c r="L7" t="n">
-        <v>10.74933455546547</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="M7" t="n">
-        <v>25.75966359751175</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="N7" t="n">
         <v>40.76999263955803</v>
@@ -4749,28 +4749,28 @@
         <v>45.33269458673296</v>
       </c>
       <c r="R7" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="S7" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="T7" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="U7" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="V7" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="W7" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="X7" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.9274653891283</v>
+        <v>239.1478285518552</v>
       </c>
       <c r="C8" t="n">
-        <v>161.8613777539366</v>
+        <v>134.0817409166644</v>
       </c>
       <c r="D8" t="n">
-        <v>134.0817409166654</v>
+        <v>29.01565328147363</v>
       </c>
       <c r="E8" t="n">
-        <v>134.0817409166654</v>
+        <v>29.01565328147363</v>
       </c>
       <c r="F8" t="n">
-        <v>127.136240167462</v>
+        <v>22.07015253227015</v>
       </c>
       <c r="G8" t="n">
-        <v>113.3873217758989</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="H8" t="n">
-        <v>113.3873217758989</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="I8" t="n">
-        <v>8.321234140707185</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="J8" t="n">
-        <v>111.2965066319586</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="K8" t="n">
-        <v>111.2965066319586</v>
+        <v>111.2965066319576</v>
       </c>
       <c r="L8" t="n">
-        <v>142.1198801881895</v>
+        <v>142.1198801881874</v>
       </c>
       <c r="M8" t="n">
-        <v>208.0862597418583</v>
+        <v>245.0951526794379</v>
       </c>
       <c r="N8" t="n">
-        <v>279.7338526612649</v>
+        <v>316.7427455988433</v>
       </c>
       <c r="O8" t="n">
-        <v>334.0533817210722</v>
+        <v>404.2022465684865</v>
       </c>
       <c r="P8" t="n">
-        <v>345.9128421879422</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="Q8" t="n">
-        <v>416.0617070353592</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="R8" t="n">
-        <v>371.99355302432</v>
+        <v>371.9935530243159</v>
       </c>
       <c r="S8" t="n">
-        <v>371.99355302432</v>
+        <v>371.9935530243159</v>
       </c>
       <c r="T8" t="n">
-        <v>371.99355302432</v>
+        <v>371.9935530243159</v>
       </c>
       <c r="U8" t="n">
-        <v>266.9274653891283</v>
+        <v>371.9935530243159</v>
       </c>
       <c r="V8" t="n">
-        <v>266.9274653891283</v>
+        <v>371.9935530243159</v>
       </c>
       <c r="W8" t="n">
-        <v>266.9274653891283</v>
+        <v>371.9935530243159</v>
       </c>
       <c r="X8" t="n">
-        <v>266.9274653891283</v>
+        <v>371.9935530243159</v>
       </c>
       <c r="Y8" t="n">
-        <v>266.9274653891283</v>
+        <v>266.9274653891251</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.321234140707185</v>
+        <v>310.9956194001647</v>
       </c>
       <c r="C9" t="n">
-        <v>8.321234140707185</v>
+        <v>310.9956194001647</v>
       </c>
       <c r="D9" t="n">
-        <v>8.321234140707185</v>
+        <v>205.9295317649739</v>
       </c>
       <c r="E9" t="n">
-        <v>8.321234140707185</v>
+        <v>113.3873217758979</v>
       </c>
       <c r="F9" t="n">
-        <v>8.321234140707185</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="G9" t="n">
-        <v>8.321234140707185</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="H9" t="n">
-        <v>8.321234140707185</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="I9" t="n">
-        <v>8.321234140707185</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="J9" t="n">
-        <v>8.321234140707185</v>
+        <v>34.1363118912044</v>
       </c>
       <c r="K9" t="n">
-        <v>42.338329599793</v>
+        <v>42.33832959979345</v>
       </c>
       <c r="L9" t="n">
-        <v>99.6894957559992</v>
+        <v>99.68949575599886</v>
       </c>
       <c r="M9" t="n">
-        <v>202.6647682472506</v>
+        <v>202.6647682472494</v>
       </c>
       <c r="N9" t="n">
-        <v>305.640040738502</v>
+        <v>305.6400407384999</v>
       </c>
       <c r="O9" t="n">
-        <v>377.6225020168651</v>
+        <v>377.6225020168621</v>
       </c>
       <c r="P9" t="n">
-        <v>416.0617070353592</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="Q9" t="n">
-        <v>416.0617070353592</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="R9" t="n">
-        <v>416.0617070353592</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="S9" t="n">
-        <v>416.0617070353592</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="T9" t="n">
-        <v>416.0617070353592</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="U9" t="n">
-        <v>416.0617070353592</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="V9" t="n">
-        <v>416.0617070353592</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="W9" t="n">
-        <v>323.5194970462824</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="X9" t="n">
-        <v>218.4534094110907</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="Y9" t="n">
-        <v>113.3873217758989</v>
+        <v>416.0617070353555</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.321234140707185</v>
+        <v>310.9956194001647</v>
       </c>
       <c r="C10" t="n">
-        <v>8.321234140707185</v>
+        <v>205.9295317649739</v>
       </c>
       <c r="D10" t="n">
-        <v>8.321234140707185</v>
+        <v>113.3873217758979</v>
       </c>
       <c r="E10" t="n">
-        <v>8.321234140707185</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="F10" t="n">
-        <v>8.321234140707185</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="G10" t="n">
-        <v>8.321234140707185</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="H10" t="n">
-        <v>8.321234140707185</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="I10" t="n">
-        <v>8.321234140707185</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="J10" t="n">
-        <v>8.321234140707185</v>
+        <v>8.32123414070711</v>
       </c>
       <c r="K10" t="n">
-        <v>73.53581884437504</v>
+        <v>73.5358188443746</v>
       </c>
       <c r="L10" t="n">
-        <v>176.5110913356264</v>
+        <v>176.5110913356251</v>
       </c>
       <c r="M10" t="n">
-        <v>176.5110913356264</v>
+        <v>224.9414260552234</v>
       </c>
       <c r="N10" t="n">
-        <v>224.9414260552258</v>
+        <v>224.9414260552234</v>
       </c>
       <c r="O10" t="n">
-        <v>327.9166985464772</v>
+        <v>327.9166985464739</v>
       </c>
       <c r="P10" t="n">
-        <v>416.0617070353592</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="Q10" t="n">
-        <v>393.1986877554865</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="R10" t="n">
-        <v>393.1986877554865</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="S10" t="n">
-        <v>323.5194970462824</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="T10" t="n">
-        <v>323.5194970462824</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="U10" t="n">
-        <v>323.5194970462824</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="V10" t="n">
-        <v>323.5194970462824</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="W10" t="n">
-        <v>323.5194970462824</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="X10" t="n">
-        <v>218.4534094110907</v>
+        <v>416.0617070353555</v>
       </c>
       <c r="Y10" t="n">
-        <v>113.3873217758989</v>
+        <v>416.0617070353555</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>1002.610462896756</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>781.8178837532263</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,22 +5515,22 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>950.1865537761984</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>781.2503708482915</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.1337314359557</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.1337314359557</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.2437839380453</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5837,19 +5837,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6074,19 +6074,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>984.5772922261136</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>815.6411092982067</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>665.524469885871</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>517.6113763034779</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>370.7214288055675</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>203.5253295204474</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>221.3431781811722</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6454,28 +6454,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6490,22 +6490,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,7 +6712,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6779,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6967,7 +6967,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7016,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7168,10 +7168,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7180,43 +7180,43 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>636.6680198981028</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>467.7318369701959</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1052.829365488567</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C43" t="n">
-        <v>883.8931825606599</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D43" t="n">
-        <v>733.7765431483241</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E43" t="n">
-        <v>585.863449565931</v>
+        <v>295.5818533952732</v>
       </c>
       <c r="F43" t="n">
-        <v>438.9735020680206</v>
+        <v>148.6919058973629</v>
       </c>
       <c r="G43" t="n">
-        <v>271.7774027829005</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>130.0655716250986</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1972.677130397314</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1683.259960360354</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1455.270409462336</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1234.477830318806</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>558.0193492433381</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
         <v>407.9027098310023</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>202.1809638361346</v>
+        <v>217.342912363454</v>
       </c>
       <c r="L2" t="n">
-        <v>228.7108053025997</v>
+        <v>222.8852737282731</v>
       </c>
       <c r="M2" t="n">
         <v>205.6249188705004</v>
       </c>
       <c r="N2" t="n">
-        <v>213.6281494811804</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O2" t="n">
         <v>221.538799378194</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>140.8394464083196</v>
       </c>
       <c r="L3" t="n">
-        <v>137.3604083836059</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>138.2093953574145</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
         <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
-        <v>139.2229632339716</v>
+        <v>139.8355672148734</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>127.7689411517231</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>145.5280738211766</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8151,10 +8151,10 @@
         <v>133.1833473911586</v>
       </c>
       <c r="O4" t="n">
-        <v>144.0794803480808</v>
+        <v>139.1628415322489</v>
       </c>
       <c r="P4" t="n">
-        <v>130.0899244982092</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8218,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>217.342912363454</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>213.5488567752802</v>
+        <v>228.7108053025997</v>
       </c>
       <c r="M5" t="n">
         <v>214.9613358234932</v>
       </c>
       <c r="N5" t="n">
-        <v>219.453681055507</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
-        <v>206.3768508508745</v>
+        <v>221.538799378194</v>
       </c>
       <c r="P5" t="n">
         <v>226.149311848474</v>
@@ -8297,25 +8297,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>140.8394464083196</v>
       </c>
       <c r="L6" t="n">
-        <v>122.1984598562864</v>
+        <v>137.3604083836059</v>
       </c>
       <c r="M6" t="n">
         <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>126.2993043714169</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>139.8355672148734</v>
+        <v>139.2229632339716</v>
       </c>
       <c r="P6" t="n">
         <v>134.7518686851471</v>
       </c>
       <c r="Q6" t="n">
-        <v>145.5280738211766</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,13 +8379,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>135.1282394249294</v>
+        <v>140.6574822216631</v>
       </c>
       <c r="M7" t="n">
         <v>144.1881980719757</v>
       </c>
       <c r="N7" t="n">
-        <v>133.1833473911586</v>
+        <v>127.6541045944249</v>
       </c>
       <c r="O7" t="n">
         <v>144.6920843289826</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>141.5136528228964</v>
+        <v>37.49822606405721</v>
       </c>
       <c r="K8" t="n">
-        <v>4.949091926398808</v>
+        <v>108.9645186852386</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>37.38272013897259</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>33.47471910084556</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.5208591240581</v>
+        <v>39.66341988424364</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>41.34161277437083</v>
+        <v>67.41744888598461</v>
       </c>
       <c r="K9" t="n">
-        <v>26.0758361116123</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>16.86090757014225</v>
+        <v>16.86090757014227</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.46828871759023</v>
+        <v>24.4682887175907</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,16 +8616,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>126.1076531206121</v>
+        <v>126.1076531206116</v>
       </c>
       <c r="M10" t="n">
-        <v>20.00196017596802</v>
+        <v>68.92149019576472</v>
       </c>
       <c r="N10" t="n">
-        <v>60.50899343486711</v>
+        <v>11.58946341507024</v>
       </c>
       <c r="O10" t="n">
-        <v>135.2384436656258</v>
+        <v>135.2384436656254</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-2.013056786809326e-12</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>-2.231589282497828e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>-2.231589282497828e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-8.761884095931661e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>-1.103562085036398e-12</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>19.0774132909641</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>112.9489693570383</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>105.2672314396029</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.5618377758855218</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.77834493961038</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>31.68313303847304</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>69.70496293143185</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>104.7431111219895</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>111.1976478713717</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>45.37941682721006</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864913</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>816453.5007302943</v>
+        <v>816453.5007302945</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>794897.2062429162</v>
+        <v>794897.2062429163</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>794897.2062429162</v>
+        <v>794897.2062429163</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>794897.2062429162</v>
+        <v>794897.2062429163</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>794897.2062429163</v>
+        <v>794897.2062429162</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.371644819</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="G2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597551</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597551</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>357912.3110366686</v>
+        <v>357912.3110366669</v>
       </c>
       <c r="E3" t="n">
-        <v>1080121.758724494</v>
+        <v>1080121.758724496</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3967.032860481976</v>
+        <v>3967.032860482045</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22488.01565909371</v>
+        <v>22488.01565909348</v>
       </c>
       <c r="M3" t="n">
-        <v>266322.5358175749</v>
+        <v>266322.5358175752</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>405703.6705393202</v>
       </c>
       <c r="D4" t="n">
-        <v>310629.0408162411</v>
+        <v>310629.0408162416</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26432,34 +26432,34 @@
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
+        <v>8727.25639174422</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744249</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744246</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744249</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744249</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="J4" t="n">
+      <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="K4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744246</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>35312.90995413795</v>
       </c>
       <c r="D5" t="n">
-        <v>49123.28007136609</v>
+        <v>49123.280071366</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156462.7313697019</v>
+        <v>156462.7313697021</v>
       </c>
       <c r="C6" t="n">
-        <v>195290.7911513617</v>
+        <v>195290.7911513616</v>
       </c>
       <c r="D6" t="n">
-        <v>-81357.26027945671</v>
+        <v>-81357.26027945516</v>
       </c>
       <c r="E6" t="n">
-        <v>-564780.3094347474</v>
+        <v>-564467.6681058281</v>
       </c>
       <c r="F6" t="n">
-        <v>515341.4492897466</v>
+        <v>515654.090618668</v>
       </c>
       <c r="G6" t="n">
-        <v>515341.4492897466</v>
+        <v>515654.0906186679</v>
       </c>
       <c r="H6" t="n">
-        <v>515341.4492897465</v>
+        <v>515654.0906186677</v>
       </c>
       <c r="I6" t="n">
-        <v>515341.4492897464</v>
+        <v>515654.0906186679</v>
       </c>
       <c r="J6" t="n">
-        <v>511374.4164292644</v>
+        <v>511687.057758186</v>
       </c>
       <c r="K6" t="n">
-        <v>515341.4492897466</v>
+        <v>515654.0906186675</v>
       </c>
       <c r="L6" t="n">
-        <v>492853.433630653</v>
+        <v>493166.0749595745</v>
       </c>
       <c r="M6" t="n">
-        <v>249018.9134721717</v>
+        <v>249331.5548010925</v>
       </c>
       <c r="N6" t="n">
-        <v>515341.4492897464</v>
+        <v>515654.0906186678</v>
       </c>
       <c r="O6" t="n">
-        <v>515341.4492897466</v>
+        <v>515654.090618668</v>
       </c>
       <c r="P6" t="n">
-        <v>515341.4492897468</v>
+        <v>515654.090618668</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>420.7129414875521</v>
+        <v>420.7129414875504</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,10 +26795,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="D4" t="n">
-        <v>104.0154267588398</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>385.6916807684267</v>
+        <v>385.691680768425</v>
       </c>
       <c r="E3" t="n">
-        <v>947.2625588541216</v>
+        <v>947.2625588541237</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.85347823152034</v>
+        <v>88.85347823151942</v>
       </c>
       <c r="E4" t="n">
-        <v>1068.692861340809</v>
+        <v>1068.69286134081</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.16194852731947</v>
+        <v>15.16194852731974</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823152034</v>
+        <v>88.85347823151942</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.692861340809</v>
+        <v>1068.69286134081</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823152034</v>
+        <v>88.85347823151942</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.692861340809</v>
+        <v>1068.69286134081</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>393.5214014788485</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,10 +27429,10 @@
         <v>125.8633331579598</v>
       </c>
       <c r="S2" t="n">
-        <v>190.6498919990783</v>
+        <v>199.3332420052463</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>207.3175972426492</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27460,7 +27460,7 @@
         <v>153.1785393870043</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>157.5465504609963</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27469,7 +27469,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>129.9072638660644</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -27478,7 +27478,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>71.64112869536794</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>155.1220240940137</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>210.7744777148743</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>190.611036676158</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>152.0848725713084</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>135.0311308737419</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27587,10 +27587,10 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>207.7540633326271</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>214.0914113405653</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>391.714097214392</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>189.8861735903263</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>125.8633331579598</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>207.3175972426492</v>
       </c>
       <c r="U5" t="n">
         <v>251.3343897888113</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>342.7623701962615</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>372.8832943931906</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27751,19 +27751,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>210.7744777148743</v>
+        <v>212.5817819793308</v>
       </c>
       <c r="V6" t="n">
         <v>217.6386386221058</v>
       </c>
       <c r="W6" t="n">
-        <v>236.5330346336001</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>192.4183409406145</v>
+        <v>190.611036676158</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>190.5207472499849</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>166.4773359190743</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,10 +27788,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>152.7658777380392</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>148.0813419534068</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I7" t="n">
         <v>153.551289182031</v>
@@ -27800,7 +27800,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>65.71188435578699</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>159.2918501364599</v>
       </c>
       <c r="S7" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>212.5138049577163</v>
       </c>
       <c r="U7" t="n">
         <v>286.3155846423218</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>355.2320011945833</v>
       </c>
       <c r="C8" t="n">
-        <v>261.2574650121678</v>
+        <v>261.2574650121687</v>
       </c>
       <c r="D8" t="n">
-        <v>327.1812011517845</v>
+        <v>250.6676148618441</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>322.1536909117093</v>
+        <v>322.1536909117094</v>
       </c>
       <c r="I8" t="n">
-        <v>41.25629928714859</v>
+        <v>145.2717260459887</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>170.4793815293706</v>
+        <v>170.4793815293708</v>
       </c>
       <c r="T8" t="n">
         <v>215.6921474481042</v>
       </c>
       <c r="U8" t="n">
-        <v>147.1949214843977</v>
+        <v>251.2103482432375</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>282.2225118972147</v>
       </c>
     </row>
     <row r="9">
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.51775689102753</v>
+        <v>62.51775689102845</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>43.42963880579987</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>66.02829256621567</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>41.05378563454499</v>
       </c>
       <c r="G9" t="n">
         <v>136.438587440011</v>
@@ -27952,7 +27952,7 @@
         <v>103.4957282255947</v>
       </c>
       <c r="I9" t="n">
-        <v>58.24006124125202</v>
+        <v>58.24006124125214</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.97281151398474</v>
+        <v>43.97281151398496</v>
       </c>
       <c r="S9" t="n">
-        <v>154.8744983944059</v>
+        <v>154.874498394406</v>
       </c>
       <c r="T9" t="n">
         <v>196.5172268719248</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>160.0781952717335</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>101.7575584446377</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>101.6672690184646</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.81655342309749</v>
+        <v>75.81655342309841</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>63.23139433978895</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>56.99868512902708</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>42.41853588773029</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,13 +28028,13 @@
         <v>167.2323166770878</v>
       </c>
       <c r="H10" t="n">
-        <v>155.4819715767047</v>
+        <v>155.4819715767048</v>
       </c>
       <c r="I10" t="n">
-        <v>132.6354190183923</v>
+        <v>132.6354190183924</v>
       </c>
       <c r="J10" t="n">
-        <v>39.7217285437434</v>
+        <v>39.72172854374362</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.63438908707428</v>
       </c>
       <c r="R10" t="n">
-        <v>143.1811584493427</v>
+        <v>143.1811584493429</v>
       </c>
       <c r="S10" t="n">
-        <v>141.8127777786038</v>
+        <v>210.795176580716</v>
       </c>
       <c r="T10" t="n">
         <v>224.7040306987872</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>121.6942286301973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>114.569226593255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.691308307487645</v>
+        <v>1.691308307487638</v>
       </c>
       <c r="H8" t="n">
-        <v>17.32111120405785</v>
+        <v>17.32111120405778</v>
       </c>
       <c r="I8" t="n">
-        <v>65.20416352441751</v>
+        <v>65.20416352441724</v>
       </c>
       <c r="J8" t="n">
-        <v>143.5476784626297</v>
+        <v>143.5476784626291</v>
       </c>
       <c r="K8" t="n">
-        <v>215.1407591185817</v>
+        <v>215.1407591185809</v>
       </c>
       <c r="L8" t="n">
-        <v>266.9011357338568</v>
+        <v>266.9011357338557</v>
       </c>
       <c r="M8" t="n">
-        <v>296.9789398471402</v>
+        <v>296.978939847139</v>
       </c>
       <c r="N8" t="n">
-        <v>301.7843695757895</v>
+        <v>301.7843695757883</v>
       </c>
       <c r="O8" t="n">
-        <v>284.9664225932092</v>
+        <v>284.9664225932081</v>
       </c>
       <c r="P8" t="n">
-        <v>243.2122487521079</v>
+        <v>243.2122487521069</v>
       </c>
       <c r="Q8" t="n">
-        <v>182.6422699902066</v>
+        <v>182.6422699902058</v>
       </c>
       <c r="R8" t="n">
-        <v>106.2416454702209</v>
+        <v>106.2416454702205</v>
       </c>
       <c r="S8" t="n">
-        <v>38.54068805687476</v>
+        <v>38.5406880568746</v>
       </c>
       <c r="T8" t="n">
-        <v>7.403702116027171</v>
+        <v>7.403702116027141</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1353046645990116</v>
+        <v>0.1353046645990111</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9049297231996404</v>
+        <v>0.9049297231996367</v>
       </c>
       <c r="H9" t="n">
-        <v>8.739716010901791</v>
+        <v>8.739716010901756</v>
       </c>
       <c r="I9" t="n">
-        <v>31.15657161016306</v>
+        <v>31.15657161016293</v>
       </c>
       <c r="J9" t="n">
-        <v>85.49601389229586</v>
+        <v>85.49601389229551</v>
       </c>
       <c r="K9" t="n">
-        <v>146.1263053466718</v>
+        <v>146.1263053466712</v>
       </c>
       <c r="L9" t="n">
-        <v>196.4848506447289</v>
+        <v>196.4848506447281</v>
       </c>
       <c r="M9" t="n">
-        <v>229.2885531107159</v>
+        <v>229.2885531107149</v>
       </c>
       <c r="N9" t="n">
-        <v>235.3571388421731</v>
+        <v>235.3571388421722</v>
       </c>
       <c r="O9" t="n">
-        <v>215.3058012912758</v>
+        <v>215.3058012912749</v>
       </c>
       <c r="P9" t="n">
-        <v>172.801887230991</v>
+        <v>172.8018872309903</v>
       </c>
       <c r="Q9" t="n">
-        <v>115.5134853684313</v>
+        <v>115.5134853684308</v>
       </c>
       <c r="R9" t="n">
-        <v>56.1850226386584</v>
+        <v>56.18502263865817</v>
       </c>
       <c r="S9" t="n">
-        <v>16.80867270943191</v>
+        <v>16.80867270943184</v>
       </c>
       <c r="T9" t="n">
-        <v>3.647501822896795</v>
+        <v>3.64750182289678</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05953485021050268</v>
+        <v>0.05953485021050244</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7586626813709955</v>
+        <v>0.7586626813709924</v>
       </c>
       <c r="H10" t="n">
-        <v>6.745200930734856</v>
+        <v>6.745200930734828</v>
       </c>
       <c r="I10" t="n">
-        <v>22.81505590886594</v>
+        <v>22.81505590886585</v>
       </c>
       <c r="J10" t="n">
-        <v>53.63745157292938</v>
+        <v>53.63745157292916</v>
       </c>
       <c r="K10" t="n">
-        <v>88.14280970837564</v>
+        <v>88.14280970837528</v>
       </c>
       <c r="L10" t="n">
-        <v>112.792449919466</v>
+        <v>112.7924499194656</v>
       </c>
       <c r="M10" t="n">
-        <v>118.923823771637</v>
+        <v>118.9238237716365</v>
       </c>
       <c r="N10" t="n">
-        <v>116.0960810501634</v>
+        <v>116.096081050163</v>
       </c>
       <c r="O10" t="n">
-        <v>107.2335215450567</v>
+        <v>107.2335215450563</v>
       </c>
       <c r="P10" t="n">
-        <v>91.75680284508836</v>
+        <v>91.75680284508799</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.52765416462037</v>
+        <v>63.5276541646201</v>
       </c>
       <c r="R10" t="n">
-        <v>34.11223292782675</v>
+        <v>34.11223292782661</v>
       </c>
       <c r="S10" t="n">
-        <v>13.22142145625634</v>
+        <v>13.22142145625629</v>
       </c>
       <c r="T10" t="n">
-        <v>3.241558729494252</v>
+        <v>3.24155872949424</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04138160080205434</v>
+        <v>0.04138160080205418</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="L2" t="n">
-        <v>15.16194852731947</v>
+        <v>9.336416952992847</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.336416952992847</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>15.16194852731947</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
+        <v>8.179020993895531</v>
+      </c>
+      <c r="Q3" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>14.54934454641767</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34871,10 +34871,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="O4" t="n">
-        <v>14.54934454641767</v>
+        <v>9.632705730585771</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>9.336416952992847</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>15.16194852731947</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>14.54934454641767</v>
-      </c>
-      <c r="O6" t="n">
-        <v>15.16194852731947</v>
       </c>
       <c r="P6" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="Q6" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>9.632705730585775</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="M7" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="N7" t="n">
-        <v>15.16194852731947</v>
+        <v>9.632705730585775</v>
       </c>
       <c r="O7" t="n">
         <v>15.16194852731947</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>104.0154267588398</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="L8" t="n">
-        <v>31.13472076386955</v>
+        <v>31.13472076386847</v>
       </c>
       <c r="M8" t="n">
-        <v>66.63270661986749</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="N8" t="n">
-        <v>72.37130597919861</v>
+        <v>72.37130597919736</v>
       </c>
       <c r="O8" t="n">
-        <v>54.86821117152252</v>
+        <v>88.34293027236689</v>
       </c>
       <c r="P8" t="n">
-        <v>11.9792529968384</v>
+        <v>11.9792529968374</v>
       </c>
       <c r="Q8" t="n">
-        <v>70.85743923981518</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>26.07583611161342</v>
       </c>
       <c r="K9" t="n">
-        <v>34.36070248392507</v>
+        <v>8.284866372312166</v>
       </c>
       <c r="L9" t="n">
-        <v>57.93047086485475</v>
+        <v>57.93047086485396</v>
       </c>
       <c r="M9" t="n">
-        <v>104.0154267588398</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="N9" t="n">
-        <v>104.0154267588398</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="O9" t="n">
-        <v>72.70955684683139</v>
+        <v>72.70955684683051</v>
       </c>
       <c r="P9" t="n">
-        <v>38.82747981666074</v>
+        <v>38.82747981666003</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>65.87331788249278</v>
+        <v>65.87331788249243</v>
       </c>
       <c r="L10" t="n">
-        <v>104.0154267588398</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>48.91953001979621</v>
       </c>
       <c r="N10" t="n">
-        <v>48.91953001979734</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>104.0154267588398</v>
+        <v>104.0154267588389</v>
       </c>
       <c r="P10" t="n">
-        <v>89.03536210998185</v>
+        <v>89.03536210998148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>406.830144396991</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>171.2123056344834</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462666</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
